--- a/biology/Histoire de la zoologie et de la botanique/Johann_Carl_Fuhlrott/Johann_Carl_Fuhlrott.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Carl_Fuhlrott/Johann_Carl_Fuhlrott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Carl Fuhlrott (né le 31 décembre 1803 à Leinefelde en électorat de Mayence – mort le 17 octobre 1877 à Elberfeld (aujourd'hui incorporé à Wuppertal) était un naturaliste et préhistorien allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1856, on lui présenta des ossements découverts dans une grotte de la vallée de Neandertal, près de Düsseldorf. Il reconnut dans ces vestiges ceux d'un prédécesseur de l'homme moderne ; il s'agissait du squelette qui servirait à reconnaître et définir l'Homme de Néandertal.
 Il fréquenta le lycée de Heiligenstadt puis alla à l'université à Bonn où il étudia la théologie pendant un an avant de se tourner vers les mathématiques et les sciences naturelles. En 1828, il passa à Münster l’examen pour être professeur de collège (Oberlehrer). Il fit son année probatoire à Heiligenstadt puis, en 1830, entra au collège d’Elberfeld qui venait d’être fondé et y enseigna jusqu’à sa mort. En 1835, il fut reçu docteur à l'université de Tübingen et reçut en 1862 le titre de professeur. Il fut l'un des pionniers de la paléoanthropologie.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fuhlrott, C.J. (1859) - « Menschliche Ueberreste aus einer Felsengrotte des Düsselthals. Ein Beitrag zur Frage über die Existenz fossiler Menschen », Verhandl. Naturhist. Ver. Preuss. Rheinlande Westphalen, 16, pp. 131–153.
 Fuhlrott, C.J. (1865) - Der fossile Mensch aus dem Neanderthal und sein Verhältniß zum Alter des Menschengeschlechts, Duisburg, 78 S. 2 Abb.</t>
